--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL1.90days.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL1.90days.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
   <si>
     <t xml:space="preserve">epstroke.90days</t>
@@ -453,28 +459,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.598300148913598</v>
+        <v>0.917425873382322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.30400814243587</v>
+        <v>0.326801161762416</v>
       </c>
       <c r="F2" t="n">
-        <v>1.81902410077754</v>
+        <v>2.50283946506284</v>
       </c>
       <c r="G2" t="n">
-        <v>1.00244717920615</v>
+        <v>1.31902865241112</v>
       </c>
       <c r="H2" t="n">
-        <v>3.30077110080739</v>
+        <v>4.74910486320781</v>
       </c>
       <c r="I2" t="n">
-        <v>1.96803988248377</v>
+        <v>2.80729073432514</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0490634490201265</v>
+        <v>0.00499601286701933</v>
       </c>
       <c r="K2" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L2" t="n">
         <v>47</v>
@@ -485,37 +491,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.477802569417423</v>
+        <v>0.548431292434352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.342343921555841</v>
+        <v>0.32837567051412</v>
       </c>
       <c r="F3" t="n">
-        <v>1.61252708979158</v>
+        <v>1.73053618226251</v>
       </c>
       <c r="G3" t="n">
-        <v>0.824324087082857</v>
+        <v>0.909204696239631</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15439480182307</v>
+        <v>3.29381875226302</v>
       </c>
       <c r="I3" t="n">
-        <v>1.39568001454785</v>
+        <v>1.67013375739957</v>
       </c>
       <c r="J3" t="n">
-        <v>0.162810875227678</v>
+        <v>0.0948929025340179</v>
       </c>
       <c r="K3" t="n">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="L3" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -523,37 +529,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.495982555033333</v>
+        <v>-0.45028416451512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.517182567625565</v>
+        <v>0.464233230895538</v>
       </c>
       <c r="F4" t="n">
-        <v>1.64211091099873</v>
+        <v>0.637446986068871</v>
       </c>
       <c r="G4" t="n">
-        <v>0.595892333030943</v>
+        <v>0.256614249324403</v>
       </c>
       <c r="H4" t="n">
-        <v>4.52519372133129</v>
+        <v>1.58346101636238</v>
       </c>
       <c r="I4" t="n">
-        <v>0.959008648165457</v>
+        <v>-0.969952460418419</v>
       </c>
       <c r="J4" t="n">
-        <v>0.33755438850384</v>
+        <v>0.332070189030053</v>
       </c>
       <c r="K4" t="n">
-        <v>1184</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -567,31 +573,335 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0264833774151395</v>
+        <v>0.865632589223619</v>
       </c>
       <c r="E5" t="n">
-        <v>0.708612315533674</v>
+        <v>0.366771002231371</v>
       </c>
       <c r="F5" t="n">
-        <v>1.02683717843168</v>
+        <v>2.3765089645354</v>
       </c>
       <c r="G5" t="n">
-        <v>0.256046359005825</v>
+        <v>1.15807764152256</v>
       </c>
       <c r="H5" t="n">
-        <v>4.11798314611282</v>
+        <v>4.87687064840645</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0373735776737019</v>
+        <v>2.36014456965589</v>
       </c>
       <c r="J5" t="n">
-        <v>0.970187139909556</v>
+        <v>0.0182678144077115</v>
       </c>
       <c r="K5" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.701347068344952</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.372875805194614</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.01646719788885</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.970941062918279</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.18783396382522</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.8809133190578</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0599837111064671</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.12295996907087</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.51929575950932</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.884299061165344</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.319569769628737</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.44699250021799</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.236782155099926</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.812825796101932</v>
+      </c>
+      <c r="K7" t="n">
+        <v>549</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.564743098833264</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.548834786095088</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75899583658885</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.59991153163458</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.15753772011435</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.02898561305008</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.303486435501202</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.475207927418731</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.570195625833423</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.60834858248985</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.526041327881079</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.91745614972271</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.833412088568983</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.404612359312045</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.493062384133497</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.789443614057766</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.610753166570324</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.129980366391938</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.86981365594008</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.624569475708518</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.532253658644671</v>
+      </c>
+      <c r="K10" t="n">
+        <v>549</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.266979011415606</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.795670031647141</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.30601303467819</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.274574061145918</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.21205819526736</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.335539860490818</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.737217881345752</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L11" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.38472537610728</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.901589847253064</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.250392554128394</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0427732882848567</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.46578469126344</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1.5358706404317</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.124570110132459</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.349307143289704</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.24019098590833</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.705176506772318</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0620334529543105</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.01622160336403</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.281655928206789</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.778207350992465</v>
+      </c>
+      <c r="K13" t="n">
+        <v>549</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
